--- a/po_analysis_by_asin/B09J2NCD2L_po_data.xlsx
+++ b/po_analysis_by_asin/B09J2NCD2L_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,49 +452,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>870</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45334</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45341</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>690</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1080</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>280</v>
       </c>
     </row>
@@ -509,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,17 +643,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2670</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>640</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09J2NCD2L_po_data.xlsx
+++ b/po_analysis_by_asin/B09J2NCD2L_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -592,22 +592,6 @@
       </c>
       <c r="B19" t="n">
         <v>1080</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B20" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B21" t="n">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +654,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -703,14 +687,6 @@
       </c>
       <c r="B9" t="n">
         <v>2670</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09J2NCD2L_po_data.xlsx
+++ b/po_analysis_by_asin/B09J2NCD2L_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -621,7 +622,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -687,6 +688,411 @@
       </c>
       <c r="B9" t="n">
         <v>2670</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-153.3884467673877</v>
+      </c>
+      <c r="D2" t="n">
+        <v>412.0987444539376</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-160.0266607614241</v>
+      </c>
+      <c r="D3" t="n">
+        <v>444.7347502635249</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>166</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-151.1660102993347</v>
+      </c>
+      <c r="D4" t="n">
+        <v>447.1119777029601</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>175</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-122.0913740386571</v>
+      </c>
+      <c r="D5" t="n">
+        <v>474.3902664384001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>183</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-112.8724154280573</v>
+      </c>
+      <c r="D6" t="n">
+        <v>484.3293208095423</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>192</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-99.79959250736941</v>
+      </c>
+      <c r="D7" t="n">
+        <v>489.7106316140446</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>201</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-100.6900456015445</v>
+      </c>
+      <c r="D8" t="n">
+        <v>510.0881398131596</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>209</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-118.7491203365746</v>
+      </c>
+      <c r="D9" t="n">
+        <v>498.090509550519</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>218</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-82.77355822175892</v>
+      </c>
+      <c r="D10" t="n">
+        <v>520.9055483810445</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>244</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-60.48643904967059</v>
+      </c>
+      <c r="D11" t="n">
+        <v>532.228930376116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>348</v>
+      </c>
+      <c r="C12" t="n">
+        <v>52.84546254613629</v>
+      </c>
+      <c r="D12" t="n">
+        <v>648.9908924138175</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>357</v>
+      </c>
+      <c r="C13" t="n">
+        <v>52.87865428938065</v>
+      </c>
+      <c r="D13" t="n">
+        <v>665.2998176460627</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>400</v>
+      </c>
+      <c r="C14" t="n">
+        <v>119.1866193518236</v>
+      </c>
+      <c r="D14" t="n">
+        <v>710.2326131619543</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>409</v>
+      </c>
+      <c r="C15" t="n">
+        <v>109.2170446373176</v>
+      </c>
+      <c r="D15" t="n">
+        <v>720.713602856025</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>547</v>
+      </c>
+      <c r="C16" t="n">
+        <v>248.5790042344327</v>
+      </c>
+      <c r="D16" t="n">
+        <v>848.7581835239511</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>556</v>
+      </c>
+      <c r="C17" t="n">
+        <v>263.3367641080357</v>
+      </c>
+      <c r="D17" t="n">
+        <v>830.1641631059314</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>565</v>
+      </c>
+      <c r="C18" t="n">
+        <v>234.8486650456693</v>
+      </c>
+      <c r="D18" t="n">
+        <v>853.99577809579</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>573</v>
+      </c>
+      <c r="C19" t="n">
+        <v>287.3063614169737</v>
+      </c>
+      <c r="D19" t="n">
+        <v>877.0679714980828</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>582</v>
+      </c>
+      <c r="C20" t="n">
+        <v>276.9490794012031</v>
+      </c>
+      <c r="D20" t="n">
+        <v>886.5989614770468</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>591</v>
+      </c>
+      <c r="C21" t="n">
+        <v>293.0188031708338</v>
+      </c>
+      <c r="D21" t="n">
+        <v>877.5123435561206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>599</v>
+      </c>
+      <c r="C22" t="n">
+        <v>301.0780986087168</v>
+      </c>
+      <c r="D22" t="n">
+        <v>882.6644955504717</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>608</v>
+      </c>
+      <c r="C23" t="n">
+        <v>290.8928385568162</v>
+      </c>
+      <c r="D23" t="n">
+        <v>926.4469041184445</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>617</v>
+      </c>
+      <c r="C24" t="n">
+        <v>322.6137255101057</v>
+      </c>
+      <c r="D24" t="n">
+        <v>901.2332794530615</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>625</v>
+      </c>
+      <c r="C25" t="n">
+        <v>326.8126194227149</v>
+      </c>
+      <c r="D25" t="n">
+        <v>912.8128985633957</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>634</v>
+      </c>
+      <c r="C26" t="n">
+        <v>324.3606913952706</v>
+      </c>
+      <c r="D26" t="n">
+        <v>941.6352667593054</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>643</v>
+      </c>
+      <c r="C27" t="n">
+        <v>362.6908285357517</v>
+      </c>
+      <c r="D27" t="n">
+        <v>954.1463627786086</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09J2NCD2L_po_data.xlsx
+++ b/po_analysis_by_asin/B09J2NCD2L_po_data.xlsx
@@ -701,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,16 +720,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -738,12 +728,6 @@
       <c r="B2" t="n">
         <v>140</v>
       </c>
-      <c r="C2" t="n">
-        <v>-153.3884467673877</v>
-      </c>
-      <c r="D2" t="n">
-        <v>412.0987444539376</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -752,12 +736,6 @@
       <c r="B3" t="n">
         <v>149</v>
       </c>
-      <c r="C3" t="n">
-        <v>-160.0266607614241</v>
-      </c>
-      <c r="D3" t="n">
-        <v>444.7347502635249</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -766,12 +744,6 @@
       <c r="B4" t="n">
         <v>166</v>
       </c>
-      <c r="C4" t="n">
-        <v>-151.1660102993347</v>
-      </c>
-      <c r="D4" t="n">
-        <v>447.1119777029601</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -780,12 +752,6 @@
       <c r="B5" t="n">
         <v>175</v>
       </c>
-      <c r="C5" t="n">
-        <v>-122.0913740386571</v>
-      </c>
-      <c r="D5" t="n">
-        <v>474.3902664384001</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -794,12 +760,6 @@
       <c r="B6" t="n">
         <v>183</v>
       </c>
-      <c r="C6" t="n">
-        <v>-112.8724154280573</v>
-      </c>
-      <c r="D6" t="n">
-        <v>484.3293208095423</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -808,12 +768,6 @@
       <c r="B7" t="n">
         <v>192</v>
       </c>
-      <c r="C7" t="n">
-        <v>-99.79959250736941</v>
-      </c>
-      <c r="D7" t="n">
-        <v>489.7106316140446</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -822,12 +776,6 @@
       <c r="B8" t="n">
         <v>201</v>
       </c>
-      <c r="C8" t="n">
-        <v>-100.6900456015445</v>
-      </c>
-      <c r="D8" t="n">
-        <v>510.0881398131596</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -836,12 +784,6 @@
       <c r="B9" t="n">
         <v>209</v>
       </c>
-      <c r="C9" t="n">
-        <v>-118.7491203365746</v>
-      </c>
-      <c r="D9" t="n">
-        <v>498.090509550519</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -850,12 +792,6 @@
       <c r="B10" t="n">
         <v>218</v>
       </c>
-      <c r="C10" t="n">
-        <v>-82.77355822175892</v>
-      </c>
-      <c r="D10" t="n">
-        <v>520.9055483810445</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -864,12 +800,6 @@
       <c r="B11" t="n">
         <v>244</v>
       </c>
-      <c r="C11" t="n">
-        <v>-60.48643904967059</v>
-      </c>
-      <c r="D11" t="n">
-        <v>532.228930376116</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -878,12 +808,6 @@
       <c r="B12" t="n">
         <v>348</v>
       </c>
-      <c r="C12" t="n">
-        <v>52.84546254613629</v>
-      </c>
-      <c r="D12" t="n">
-        <v>648.9908924138175</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -892,12 +816,6 @@
       <c r="B13" t="n">
         <v>357</v>
       </c>
-      <c r="C13" t="n">
-        <v>52.87865428938065</v>
-      </c>
-      <c r="D13" t="n">
-        <v>665.2998176460627</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -906,12 +824,6 @@
       <c r="B14" t="n">
         <v>400</v>
       </c>
-      <c r="C14" t="n">
-        <v>119.1866193518236</v>
-      </c>
-      <c r="D14" t="n">
-        <v>710.2326131619543</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -920,12 +832,6 @@
       <c r="B15" t="n">
         <v>409</v>
       </c>
-      <c r="C15" t="n">
-        <v>109.2170446373176</v>
-      </c>
-      <c r="D15" t="n">
-        <v>720.713602856025</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -934,12 +840,6 @@
       <c r="B16" t="n">
         <v>547</v>
       </c>
-      <c r="C16" t="n">
-        <v>248.5790042344327</v>
-      </c>
-      <c r="D16" t="n">
-        <v>848.7581835239511</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -948,12 +848,6 @@
       <c r="B17" t="n">
         <v>556</v>
       </c>
-      <c r="C17" t="n">
-        <v>263.3367641080357</v>
-      </c>
-      <c r="D17" t="n">
-        <v>830.1641631059314</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -962,12 +856,6 @@
       <c r="B18" t="n">
         <v>565</v>
       </c>
-      <c r="C18" t="n">
-        <v>234.8486650456693</v>
-      </c>
-      <c r="D18" t="n">
-        <v>853.99577809579</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -976,12 +864,6 @@
       <c r="B19" t="n">
         <v>573</v>
       </c>
-      <c r="C19" t="n">
-        <v>287.3063614169737</v>
-      </c>
-      <c r="D19" t="n">
-        <v>877.0679714980828</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -990,12 +872,6 @@
       <c r="B20" t="n">
         <v>582</v>
       </c>
-      <c r="C20" t="n">
-        <v>276.9490794012031</v>
-      </c>
-      <c r="D20" t="n">
-        <v>886.5989614770468</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1004,12 +880,6 @@
       <c r="B21" t="n">
         <v>591</v>
       </c>
-      <c r="C21" t="n">
-        <v>293.0188031708338</v>
-      </c>
-      <c r="D21" t="n">
-        <v>877.5123435561206</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1018,12 +888,6 @@
       <c r="B22" t="n">
         <v>599</v>
       </c>
-      <c r="C22" t="n">
-        <v>301.0780986087168</v>
-      </c>
-      <c r="D22" t="n">
-        <v>882.6644955504717</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1032,12 +896,6 @@
       <c r="B23" t="n">
         <v>608</v>
       </c>
-      <c r="C23" t="n">
-        <v>290.8928385568162</v>
-      </c>
-      <c r="D23" t="n">
-        <v>926.4469041184445</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1046,12 +904,6 @@
       <c r="B24" t="n">
         <v>617</v>
       </c>
-      <c r="C24" t="n">
-        <v>322.6137255101057</v>
-      </c>
-      <c r="D24" t="n">
-        <v>901.2332794530615</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1060,12 +912,6 @@
       <c r="B25" t="n">
         <v>625</v>
       </c>
-      <c r="C25" t="n">
-        <v>326.8126194227149</v>
-      </c>
-      <c r="D25" t="n">
-        <v>912.8128985633957</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1074,12 +920,6 @@
       <c r="B26" t="n">
         <v>634</v>
       </c>
-      <c r="C26" t="n">
-        <v>324.3606913952706</v>
-      </c>
-      <c r="D26" t="n">
-        <v>941.6352667593054</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1087,12 +927,6 @@
       </c>
       <c r="B27" t="n">
         <v>643</v>
-      </c>
-      <c r="C27" t="n">
-        <v>362.6908285357517</v>
-      </c>
-      <c r="D27" t="n">
-        <v>954.1463627786086</v>
       </c>
     </row>
   </sheetData>
